--- a/SQL-Ledger.xlsx
+++ b/SQL-Ledger.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFBB02"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -65,13 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -488,11 +482,6 @@
           <t>現金 A</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>101,426.00</t>
@@ -520,16 +509,6 @@
           <t>現金 B</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>3,379.85</t>
@@ -552,16 +531,6 @@
           <t>零用現金A</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>100,000.00</t>
@@ -574,32 +543,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>現金及銀行存款</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>101,426.00</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>106,348.85</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-4,922.85</t>
         </is>
@@ -616,19 +575,9 @@
           <t>電費</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>3,379.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,21 +597,11 @@
           <t>廣告費</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>1,543.00</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>1,543.00</t>
@@ -670,68 +609,37 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>按性質的成本</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>4,922.85</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4,922.85</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr"/>
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>106,348.85</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>106,348.85</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SQL-Ledger.xlsx
+++ b/SQL-Ledger.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="試算表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="會計科目表" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,12 +30,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFBB02"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,12 +66,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,22 +550,24 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>現金及銀行存款</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>101,426.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>106,348.85</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>-4,922.85</t>
         </is>
@@ -609,37 +618,2013 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>按性質的成本</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>4,922.85</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>4,922.85</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr"/>
-      <c r="B9" s="2" t="inlineStr"/>
-      <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>106,348.85</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>106,348.85</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>帳戶</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>財務訊息通用索引(GIFI)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>說明</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>借方</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>貸方</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>現金及銀行存款</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>現金 A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98,457.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>現金 B</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,379.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>零用現金A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>100,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>零用現金B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>活期存款 A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>活期存款 B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>活期存款 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>活期存款 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>活期存款 E</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>通知存款 A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>通知存款 B</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>定期存款 A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>定期存款 B</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>定期存款 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>定期存款 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>定期存款 E</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>應付帳款</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>應付帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>貸款</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2311</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>貸款與股東</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>貸款與聯號</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2313</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>員工貸款及預支</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>其他貸出款項</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>借款</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2321</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>銀行借款</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>借入股東款項</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>借入聯號款項</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>其他借入款項</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>應付政府部門</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2411</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>公庫 - 純利稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>公庫 - 職業稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>公庫 - 其他稅項</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>其他自治機構</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr"/>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>應收股東及聯號</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2511</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>股東已認購股份</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2512</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>聯號已認購股份</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2513</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>股東預收利潤</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2514</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>聯號預收利潤</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr"/>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>應付股東及聯號</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>股東損益分配</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>聯號損益分配</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr"/>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>應付固定資產供應商</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>應付固定資產供應商</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr"/>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>應付薪酬</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>應付薪酬</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr"/>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>其他債權人</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2631</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>其他債權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr"/>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>其他債務人</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2641</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>其他債務人</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr"/>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>預付費用</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>預付費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr"/>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>預收收益</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2721</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>預收收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr"/>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>純利稅準備</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>純利稅準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr"/>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>呆帳準備</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2911</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>呆壞帳準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr"/>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>存貨</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>貨品</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3311</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>製成品及半製成品</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>副產品</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3511</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>在製品</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>主要原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>輔助原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>各種物料</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3671</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>耗用包裝品</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>存貨跌價準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr"/>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>固定資產</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>投資聯號</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>投資其他企業</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>土地</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>樓宇及其固定設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>機器設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工具及用具</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>運輸設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>傢俬設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>打字機及計算機</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>微型電腦</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>其他有形資產</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>移轉（頂手費）</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">營業上所有權　</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">開辦費及擴充費　</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">其他無形資產　</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4411</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">未完成工程 </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>遞延保養費</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4791</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>其他遞延費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>累計折舊及分攤</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4911</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>財務資產準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr"/>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>資本,各項準備及損益彙積</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>5211</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>普通股</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>5221</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>優先股</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>5231</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>股份A</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>股份B</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5411</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>資本主</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>5511</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>普通準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>5561</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>法定準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>5911</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>損益積</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr"/>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>按性質的成本</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr"/>
+      <c r="E102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6111</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>銷售成本</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>分包</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6311</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>水費</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>6312</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>電費</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3,379.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>6313</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>燃料</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6318</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>其他供應</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6321</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>房屋及其他租金</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6322</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>交際費</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>6323</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>維修及保養</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6324</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>通訊費</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6326</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>廣告費</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1,543.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6327</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>特定工作</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>6338</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>其他勞務</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6411</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>間接稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>6421</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>直接稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>6511</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>資本主薪酬</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>6521</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工資及薪酬</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>額外報酬</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>6551</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>報酬負擔</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>6561</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>員工培訓</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>6571</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工作意外保險及職業病保險</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>6581</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>其他人事費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>6611</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>財務利息</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>6641</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>銀行服務費</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>6681</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>其他財務費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>6821</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>折舊費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>6831</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>分攤費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>6911</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>呆壞帳準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>6921</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>其他風險及負擔</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>6931</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>存貨跌價準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr"/>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>按性質的收益</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr"/>
+      <c r="E133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7111</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>貨物及產品銷售</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>勞務提供</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7411</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>營業上的補貼</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7511</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>次要收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>活期存款利息收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7711</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>定期存款利息收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7731</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>投資收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7831</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>其他收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7911</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>準備的使用</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr"/>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>營業非常損失</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr"/>
+      <c r="E143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>8211</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>營業非常損失</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr"/>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>營業非常收益</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr"/>
+      <c r="E145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>營業非常收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr"/>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>以前年度損失</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr"/>
+      <c r="E147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>8311</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>以前年度損失</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr"/>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>以前年度收益</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr"/>
+      <c r="E149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>8321</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>以前年度收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr"/>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>預付股息</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr"/>
+      <c r="E151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>8911</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>預付股息</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>103,379.85</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>103,379.85</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
